--- a/str_adds.xlsx
+++ b/str_adds.xlsx
@@ -5251,7 +5251,7 @@
     <t>서울특별시 강남구 테헤란로 211, 한국고등교육재단빌딩 1층 (역삼동)</t>
   </si>
   <si>
-    <t>서울특별시 강남구 테헤란로 134, P&amp;amp;S TOWER (역삼동)</t>
+    <t>서울특별시 강남구 테헤란로 134, P&amp;S TOWER (역삼동)</t>
   </si>
   <si>
     <t>서울특별시 강남구 강남대로 456, 한석타워 2층 1-2호 (역삼동)</t>
@@ -5500,7 +5500,7 @@
     <t>서울특별시 관악구 남부순환로 1948 (봉천동)</t>
   </si>
   <si>
-    <t>서울특별시 관악구 남부순환로 2082-25</t>
+    <t>서울특별시 관악구 남부순환로 208</t>
   </si>
   <si>
     <t>서울특별시 관악구 보라매로3길 23 (봉천동) 1층</t>
@@ -5533,7 +5533,7 @@
     <t>서울특별시 광진구 광나루로 519 (구의동)</t>
   </si>
   <si>
-    <t>서울특별시 광진구 아차산로 355</t>
+    <t xml:space="preserve">서울특별시 광진구 아차산로 </t>
   </si>
   <si>
     <t>서울특별시 광진구 천호대로 548 (군자동) 중앙빌딩</t>
@@ -5713,7 +5713,7 @@
     <t>서울특별시 마포구 서강로 69 (창전동)</t>
   </si>
   <si>
-    <t>서울특별시 마포구 월드컵로1길 14 (합정동) 마포한강푸르지오 110, 111, 112-2</t>
+    <t xml:space="preserve">서울특별시 마포구 월드컵로1길 14 (합정동) 마포한강푸르지오 110, 111, </t>
   </si>
   <si>
     <t>서울특별시 마포구 백범로 89-5 (대흥동)</t>
@@ -5824,7 +5824,7 @@
     <t>서울특별시 서대문구 신촌로 129 (창천동)</t>
   </si>
   <si>
-    <t>서울특별시 서대문구 충정로 23</t>
+    <t xml:space="preserve">서울특별시 서대문구 충정로 </t>
   </si>
   <si>
     <t>서울특별시 서대문구 성산로 565 (대신동)</t>
@@ -5875,7 +5875,7 @@
     <t>서울특별시 서초구 강남대로85길 5 (반포동)</t>
   </si>
   <si>
-    <t>서울특별시 서초구 방배로 211</t>
+    <t xml:space="preserve">서울특별시 서초구 방배로 </t>
   </si>
   <si>
     <t>서울특별시 서초구 방배중앙로 162 (방배동)</t>
@@ -5914,7 +5914,7 @@
     <t>서울특별시 서초구 남부순환로 2395 (서초동) 호경빌딩</t>
   </si>
   <si>
-    <t>서울특별시 서초구 서초중앙로 225</t>
+    <t xml:space="preserve">서울특별시 서초구 서초중앙로 </t>
   </si>
   <si>
     <t>서울특별시 서초구 서초대로78길 24 (서초동)</t>
@@ -6310,7 +6310,7 @@
     <t>서울특별시 은평구 통일로 867 (갈현동)</t>
   </si>
   <si>
-    <t>서울특별시 은평구 진관2로 12</t>
+    <t xml:space="preserve">서울특별시 은평구 진관2로 </t>
   </si>
   <si>
     <t>서울특별시 은평구 은평로 170 (응암동)</t>
@@ -6451,7 +6451,7 @@
     <t>서울특별시 중구 을지로 251 (을지로6가)</t>
   </si>
   <si>
-    <t>서울특별시 중구 서애로 1길 11</t>
+    <t xml:space="preserve">서울특별시 중구 서애로 1길 </t>
   </si>
   <si>
     <t>서울특별시 중구 소공로 63 (충무로1가)</t>
@@ -6505,7 +6505,7 @@
     <t>서울특별시 중구 수표로 34 (저동2가)</t>
   </si>
   <si>
-    <t>서울특별시 중구 명동10길 41</t>
+    <t>서울특별시 중구 명동10길 4</t>
   </si>
   <si>
     <t>서울특별시 중구 서소문로 120 (서소문동) 대한빌딩</t>
@@ -6784,7 +6784,7 @@
     <t>서울특별시 용산구 한강대로 291 (갈월동)</t>
   </si>
   <si>
-    <t>서울특별시 용산구 한강대로23길 55</t>
+    <t xml:space="preserve">서울특별시 용산구 한강대로23길 </t>
   </si>
   <si>
     <t>서울특별시 용산구 이촌로 198 (이촌동)</t>
@@ -6811,7 +6811,7 @@
     <t>서울특별시 중랑구 망우로30길 3 (상봉동)</t>
   </si>
   <si>
-    <t>서울특별시 중랑구 신내로 72</t>
+    <t>서울특별시 중랑구 신내로 7</t>
   </si>
   <si>
     <t>서울특별시 중랑구 면목로 310</t>
